--- a/output/ValueSet-lrc-referral-codes.xlsx
+++ b/output/ValueSet-lrc-referral-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T18:05:24+02:00</t>
+    <t>2024-02-22T18:39:46+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-lrc-referral-codes.xlsx
+++ b/output/ValueSet-lrc-referral-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T18:39:46+02:00</t>
+    <t>2024-02-27T18:05:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-lrc-referral-codes.xlsx
+++ b/output/ValueSet-lrc-referral-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T18:05:15+02:00</t>
+    <t>2024-03-03T08:59:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-lrc-referral-codes.xlsx
+++ b/output/ValueSet-lrc-referral-codes.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://outburn.co.il/fhir/oncology/ValueSet/lrc-referral-codes</t>
+    <t>http://ig.fhir-il-community.org/LRC/ValueSet/lrc-referral-codes</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-03T08:59:15+02:00</t>
+    <t>2024-03-03T10:40:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-lrc-referral-codes.xlsx
+++ b/output/ValueSet-lrc-referral-codes.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-03T10:40:33+02:00</t>
+    <t>2024-03-04T15:01:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Outburn LTD.</t>
+    <t>FHIR-il community</t>
   </si>
   <si>
     <t>Contact</t>
